--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,9 +98,6 @@
   </si>
   <si>
     <t>Cd2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,185 +528,1487 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.722804794272817</v>
+        <v>0.9415775</v>
       </c>
       <c r="H2">
-        <v>0.722804794272817</v>
+        <v>1.883155</v>
       </c>
       <c r="I2">
-        <v>0.207363058135146</v>
+        <v>0.1712249031745133</v>
       </c>
       <c r="J2">
-        <v>0.207363058135146</v>
+        <v>0.1386886305451922</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.539539969675966</v>
+        <v>0.1079395</v>
       </c>
       <c r="N2">
-        <v>0.539539969675966</v>
+        <v>0.215879</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.08243590548110172</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.0565100904799113</v>
       </c>
       <c r="Q2">
-        <v>0.3899820767835985</v>
+        <v>0.10163340456125</v>
       </c>
       <c r="R2">
-        <v>0.3899820767835985</v>
+        <v>0.406533618245</v>
       </c>
       <c r="S2">
-        <v>0.207363058135146</v>
+        <v>0.01411507993410497</v>
       </c>
       <c r="T2">
-        <v>0.207363058135146</v>
+        <v>0.007837307060643802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.792666366053026</v>
+        <v>0.9415775</v>
       </c>
       <c r="H3">
-        <v>0.792666366053026</v>
+        <v>1.883155</v>
       </c>
       <c r="I3">
-        <v>0.2274054115966316</v>
+        <v>0.1712249031745133</v>
       </c>
       <c r="J3">
-        <v>0.2274054115966316</v>
+        <v>0.1386886305451922</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.539539969675966</v>
+        <v>0.022386</v>
       </c>
       <c r="N3">
-        <v>0.539539969675966</v>
+        <v>0.067158</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01709670862010611</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01757977689562154</v>
       </c>
       <c r="Q3">
-        <v>0.4276751871034078</v>
+        <v>0.021078153915</v>
       </c>
       <c r="R3">
-        <v>0.4276751871034078</v>
+        <v>0.12646892349</v>
       </c>
       <c r="S3">
-        <v>0.2274054115966316</v>
+        <v>0.002927382278080535</v>
       </c>
       <c r="T3">
-        <v>0.2274054115966316</v>
+        <v>0.002438115182943762</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.9415775</v>
+      </c>
+      <c r="H4">
+        <v>1.883155</v>
+      </c>
+      <c r="I4">
+        <v>0.1712249031745133</v>
+      </c>
+      <c r="J4">
+        <v>0.1386886305451922</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.5495453333333334</v>
+      </c>
+      <c r="N4">
+        <v>1.648636</v>
+      </c>
+      <c r="O4">
+        <v>0.4197005466603719</v>
+      </c>
+      <c r="P4">
+        <v>0.4315592045934948</v>
+      </c>
+      <c r="Q4">
+        <v>0.5174395210966668</v>
+      </c>
+      <c r="R4">
+        <v>3.10463712658</v>
+      </c>
+      <c r="S4">
+        <v>0.07186318546421248</v>
+      </c>
+      <c r="T4">
+        <v>0.05985235508424422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.9415775</v>
+      </c>
+      <c r="H5">
+        <v>1.883155</v>
+      </c>
+      <c r="I5">
+        <v>0.1712249031745133</v>
+      </c>
+      <c r="J5">
+        <v>0.1386886305451922</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.629504</v>
+      </c>
+      <c r="N5">
+        <v>1.888512</v>
+      </c>
+      <c r="O5">
+        <v>0.4807668392384202</v>
+      </c>
+      <c r="P5">
+        <v>0.4943509280309722</v>
+      </c>
+      <c r="Q5">
+        <v>0.5927268025599999</v>
+      </c>
+      <c r="R5">
+        <v>3.55636081536</v>
+      </c>
+      <c r="S5">
+        <v>0.08231925549811529</v>
+      </c>
+      <c r="T5">
+        <v>0.06856085321736041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.985847</v>
+      </c>
+      <c r="H6">
+        <v>2.957541</v>
+      </c>
+      <c r="I6">
+        <v>0.1792752663693477</v>
+      </c>
+      <c r="J6">
+        <v>0.2178138873705342</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.1079395</v>
+      </c>
+      <c r="N6">
+        <v>0.215879</v>
+      </c>
+      <c r="O6">
+        <v>0.08243590548110172</v>
+      </c>
+      <c r="P6">
+        <v>0.0565100904799113</v>
+      </c>
+      <c r="Q6">
+        <v>0.1064118322565</v>
+      </c>
+      <c r="R6">
+        <v>0.6384709935389999</v>
+      </c>
+      <c r="S6">
+        <v>0.01477871891352288</v>
+      </c>
+      <c r="T6">
+        <v>0.0123086824830901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.985847</v>
+      </c>
+      <c r="H7">
+        <v>2.957541</v>
+      </c>
+      <c r="I7">
+        <v>0.1792752663693477</v>
+      </c>
+      <c r="J7">
+        <v>0.2178138873705342</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.022386</v>
+      </c>
+      <c r="N7">
+        <v>0.067158</v>
+      </c>
+      <c r="O7">
+        <v>0.01709670862010611</v>
+      </c>
+      <c r="P7">
+        <v>0.01757977689562154</v>
+      </c>
+      <c r="Q7">
+        <v>0.022069170942</v>
+      </c>
+      <c r="R7">
+        <v>0.198622538478</v>
+      </c>
+      <c r="S7">
+        <v>0.003065016991908644</v>
+      </c>
+      <c r="T7">
+        <v>0.00382911954474203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.985847</v>
+      </c>
+      <c r="H8">
+        <v>2.957541</v>
+      </c>
+      <c r="I8">
+        <v>0.1792752663693477</v>
+      </c>
+      <c r="J8">
+        <v>0.2178138873705342</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.5495453333333334</v>
+      </c>
+      <c r="N8">
+        <v>1.648636</v>
+      </c>
+      <c r="O8">
+        <v>0.4197005466603719</v>
+      </c>
+      <c r="P8">
+        <v>0.4315592045934948</v>
+      </c>
+      <c r="Q8">
+        <v>0.5417676182306668</v>
+      </c>
+      <c r="R8">
+        <v>4.875908564076001</v>
+      </c>
+      <c r="S8">
+        <v>0.075241927297899</v>
+      </c>
+      <c r="T8">
+        <v>0.09399958798304479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.985847</v>
+      </c>
+      <c r="H9">
+        <v>2.957541</v>
+      </c>
+      <c r="I9">
+        <v>0.1792752663693477</v>
+      </c>
+      <c r="J9">
+        <v>0.2178138873705342</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.629504</v>
+      </c>
+      <c r="N9">
+        <v>1.888512</v>
+      </c>
+      <c r="O9">
+        <v>0.4807668392384202</v>
+      </c>
+      <c r="P9">
+        <v>0.4943509280309722</v>
+      </c>
+      <c r="Q9">
+        <v>0.620594629888</v>
+      </c>
+      <c r="R9">
+        <v>5.585351668992</v>
+      </c>
+      <c r="S9">
+        <v>0.08618960316601712</v>
+      </c>
+      <c r="T9">
+        <v>0.1076764973596572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2402846666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.720854</v>
+      </c>
+      <c r="I10">
+        <v>0.04369552032022878</v>
+      </c>
+      <c r="J10">
+        <v>0.053088701717609</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.1079395</v>
+      </c>
+      <c r="N10">
+        <v>0.215879</v>
+      </c>
+      <c r="O10">
+        <v>0.08243590548110172</v>
+      </c>
+      <c r="P10">
+        <v>0.0565100904799113</v>
+      </c>
+      <c r="Q10">
+        <v>0.02593620677766667</v>
+      </c>
+      <c r="R10">
+        <v>0.155617240666</v>
+      </c>
+      <c r="S10">
+        <v>0.003602079783065939</v>
+      </c>
+      <c r="T10">
+        <v>0.003000047337523107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2402846666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.720854</v>
+      </c>
+      <c r="I11">
+        <v>0.04369552032022878</v>
+      </c>
+      <c r="J11">
+        <v>0.053088701717609</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.022386</v>
+      </c>
+      <c r="N11">
+        <v>0.067158</v>
+      </c>
+      <c r="O11">
+        <v>0.01709670862010611</v>
+      </c>
+      <c r="P11">
+        <v>0.01757977689562154</v>
+      </c>
+      <c r="Q11">
+        <v>0.005379012548</v>
+      </c>
+      <c r="R11">
+        <v>0.048411112932</v>
+      </c>
+      <c r="S11">
+        <v>0.0007470495789188769</v>
+      </c>
+      <c r="T11">
+        <v>0.0009332875318737665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2402846666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.720854</v>
+      </c>
+      <c r="I12">
+        <v>0.04369552032022878</v>
+      </c>
+      <c r="J12">
+        <v>0.053088701717609</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.5495453333333334</v>
+      </c>
+      <c r="N12">
+        <v>1.648636</v>
+      </c>
+      <c r="O12">
+        <v>0.4197005466603719</v>
+      </c>
+      <c r="P12">
+        <v>0.4315592045934948</v>
+      </c>
+      <c r="Q12">
+        <v>0.1320473172382222</v>
+      </c>
+      <c r="R12">
+        <v>1.188425855144</v>
+      </c>
+      <c r="S12">
+        <v>0.01833903376500941</v>
+      </c>
+      <c r="T12">
+        <v>0.02291091788615264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2402846666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.720854</v>
+      </c>
+      <c r="I13">
+        <v>0.04369552032022878</v>
+      </c>
+      <c r="J13">
+        <v>0.053088701717609</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.629504</v>
+      </c>
+      <c r="N13">
+        <v>1.888512</v>
+      </c>
+      <c r="O13">
+        <v>0.4807668392384202</v>
+      </c>
+      <c r="P13">
+        <v>0.4943509280309722</v>
+      </c>
+      <c r="Q13">
+        <v>0.1512601588053333</v>
+      </c>
+      <c r="R13">
+        <v>1.361341429248</v>
+      </c>
+      <c r="S13">
+        <v>0.02100735719323455</v>
+      </c>
+      <c r="T13">
+        <v>0.02624444896205948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.40333</v>
+      </c>
+      <c r="H14">
+        <v>1.20999</v>
+      </c>
+      <c r="I14">
+        <v>0.07334514705096125</v>
+      </c>
+      <c r="J14">
+        <v>0.0891120784393091</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.1079395</v>
+      </c>
+      <c r="N14">
+        <v>0.215879</v>
+      </c>
+      <c r="O14">
+        <v>0.08243590548110172</v>
+      </c>
+      <c r="P14">
+        <v>0.0565100904799113</v>
+      </c>
+      <c r="Q14">
+        <v>0.043535238535</v>
+      </c>
+      <c r="R14">
+        <v>0.26121143121</v>
+      </c>
+      <c r="S14">
+        <v>0.006046273609790547</v>
+      </c>
+      <c r="T14">
+        <v>0.005035731615458311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.40333</v>
+      </c>
+      <c r="H15">
+        <v>1.20999</v>
+      </c>
+      <c r="I15">
+        <v>0.07334514705096125</v>
+      </c>
+      <c r="J15">
+        <v>0.0891120784393091</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.022386</v>
+      </c>
+      <c r="N15">
+        <v>0.067158</v>
+      </c>
+      <c r="O15">
+        <v>0.01709670862010611</v>
+      </c>
+      <c r="P15">
+        <v>0.01757977689562154</v>
+      </c>
+      <c r="Q15">
+        <v>0.00902894538</v>
+      </c>
+      <c r="R15">
+        <v>0.08126050842</v>
+      </c>
+      <c r="S15">
+        <v>0.001253960607829119</v>
+      </c>
+      <c r="T15">
+        <v>0.001566570457668181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.40333</v>
+      </c>
+      <c r="H16">
+        <v>1.20999</v>
+      </c>
+      <c r="I16">
+        <v>0.07334514705096125</v>
+      </c>
+      <c r="J16">
+        <v>0.0891120784393091</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.5495453333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.648636</v>
+      </c>
+      <c r="O16">
+        <v>0.4197005466603719</v>
+      </c>
+      <c r="P16">
+        <v>0.4315592045934948</v>
+      </c>
+      <c r="Q16">
+        <v>0.2216481192933334</v>
+      </c>
+      <c r="R16">
+        <v>1.99483307364</v>
+      </c>
+      <c r="S16">
+        <v>0.0307829983121738</v>
+      </c>
+      <c r="T16">
+        <v>0.03845713769094136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.40333</v>
+      </c>
+      <c r="H17">
+        <v>1.20999</v>
+      </c>
+      <c r="I17">
+        <v>0.07334514705096125</v>
+      </c>
+      <c r="J17">
+        <v>0.0891120784393091</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.629504</v>
+      </c>
+      <c r="N17">
+        <v>1.888512</v>
+      </c>
+      <c r="O17">
+        <v>0.4807668392384202</v>
+      </c>
+      <c r="P17">
+        <v>0.4943509280309722</v>
+      </c>
+      <c r="Q17">
+        <v>0.25389784832</v>
+      </c>
+      <c r="R17">
+        <v>2.28508063488</v>
+      </c>
+      <c r="S17">
+        <v>0.03526191452116777</v>
+      </c>
+      <c r="T17">
+        <v>0.04405263867524125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.950695</v>
+      </c>
+      <c r="H18">
+        <v>2.852085</v>
+      </c>
+      <c r="I18">
+        <v>0.1728829112032668</v>
+      </c>
+      <c r="J18">
+        <v>0.2100473741399324</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.1079395</v>
+      </c>
+      <c r="N18">
+        <v>0.215879</v>
+      </c>
+      <c r="O18">
+        <v>0.08243590548110172</v>
+      </c>
+      <c r="P18">
+        <v>0.0565100904799113</v>
+      </c>
+      <c r="Q18">
+        <v>0.1026175429525</v>
+      </c>
+      <c r="R18">
+        <v>0.615705257715</v>
+      </c>
+      <c r="S18">
+        <v>0.0142517593272502</v>
+      </c>
+      <c r="T18">
+        <v>0.01186979611771536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.950695</v>
+      </c>
+      <c r="H19">
+        <v>2.852085</v>
+      </c>
+      <c r="I19">
+        <v>0.1728829112032668</v>
+      </c>
+      <c r="J19">
+        <v>0.2100473741399324</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.022386</v>
+      </c>
+      <c r="N19">
+        <v>0.067158</v>
+      </c>
+      <c r="O19">
+        <v>0.01709670862010611</v>
+      </c>
+      <c r="P19">
+        <v>0.01757977689562154</v>
+      </c>
+      <c r="Q19">
+        <v>0.02128225827</v>
+      </c>
+      <c r="R19">
+        <v>0.19154032443</v>
+      </c>
+      <c r="S19">
+        <v>0.00295572875823793</v>
+      </c>
+      <c r="T19">
+        <v>0.003692585974891158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.950695</v>
+      </c>
+      <c r="H20">
+        <v>2.852085</v>
+      </c>
+      <c r="I20">
+        <v>0.1728829112032668</v>
+      </c>
+      <c r="J20">
+        <v>0.2100473741399324</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.5495453333333334</v>
+      </c>
+      <c r="N20">
+        <v>1.648636</v>
+      </c>
+      <c r="O20">
+        <v>0.4197005466603719</v>
+      </c>
+      <c r="P20">
+        <v>0.4315592045934948</v>
+      </c>
+      <c r="Q20">
+        <v>0.5224500006733334</v>
+      </c>
+      <c r="R20">
+        <v>4.70205000606</v>
+      </c>
+      <c r="S20">
+        <v>0.07255905234024761</v>
+      </c>
+      <c r="T20">
+        <v>0.09064787771078146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.950695</v>
+      </c>
+      <c r="H21">
+        <v>2.852085</v>
+      </c>
+      <c r="I21">
+        <v>0.1728829112032668</v>
+      </c>
+      <c r="J21">
+        <v>0.2100473741399324</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.629504</v>
+      </c>
+      <c r="N21">
+        <v>1.888512</v>
+      </c>
+      <c r="O21">
+        <v>0.4807668392384202</v>
+      </c>
+      <c r="P21">
+        <v>0.4943509280309722</v>
+      </c>
+      <c r="Q21">
+        <v>0.5984663052799999</v>
+      </c>
+      <c r="R21">
+        <v>5.38619674752</v>
+      </c>
+      <c r="S21">
+        <v>0.08311637077753103</v>
+      </c>
+      <c r="T21">
+        <v>0.1038371143365444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.97022586195543</v>
-      </c>
-      <c r="H4">
-        <v>1.97022586195543</v>
-      </c>
-      <c r="I4">
-        <v>0.5652315302682224</v>
-      </c>
-      <c r="J4">
-        <v>0.5652315302682224</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.539539969675966</v>
-      </c>
-      <c r="N4">
-        <v>0.539539969675966</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1.063015601814237</v>
-      </c>
-      <c r="R4">
-        <v>1.063015601814237</v>
-      </c>
-      <c r="S4">
-        <v>0.5652315302682224</v>
-      </c>
-      <c r="T4">
-        <v>0.5652315302682224</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.9773345</v>
+      </c>
+      <c r="H22">
+        <v>3.954669</v>
+      </c>
+      <c r="I22">
+        <v>0.3595762518816823</v>
+      </c>
+      <c r="J22">
+        <v>0.2912493277874231</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.1079395</v>
+      </c>
+      <c r="N22">
+        <v>0.215879</v>
+      </c>
+      <c r="O22">
+        <v>0.08243590548110172</v>
+      </c>
+      <c r="P22">
+        <v>0.0565100904799113</v>
+      </c>
+      <c r="Q22">
+        <v>0.21343249726275</v>
+      </c>
+      <c r="R22">
+        <v>0.8537299890509999</v>
+      </c>
+      <c r="S22">
+        <v>0.02964199391336719</v>
+      </c>
+      <c r="T22">
+        <v>0.01645852586548062</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.9773345</v>
+      </c>
+      <c r="H23">
+        <v>3.954669</v>
+      </c>
+      <c r="I23">
+        <v>0.3595762518816823</v>
+      </c>
+      <c r="J23">
+        <v>0.2912493277874231</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.022386</v>
+      </c>
+      <c r="N23">
+        <v>0.067158</v>
+      </c>
+      <c r="O23">
+        <v>0.01709670862010611</v>
+      </c>
+      <c r="P23">
+        <v>0.01757977689562154</v>
+      </c>
+      <c r="Q23">
+        <v>0.044264610117</v>
+      </c>
+      <c r="R23">
+        <v>0.265587660702</v>
+      </c>
+      <c r="S23">
+        <v>0.006147570405131002</v>
+      </c>
+      <c r="T23">
+        <v>0.005120098203502646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.9773345</v>
+      </c>
+      <c r="H24">
+        <v>3.954669</v>
+      </c>
+      <c r="I24">
+        <v>0.3595762518816823</v>
+      </c>
+      <c r="J24">
+        <v>0.2912493277874231</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.5495453333333334</v>
+      </c>
+      <c r="N24">
+        <v>1.648636</v>
+      </c>
+      <c r="O24">
+        <v>0.4197005466603719</v>
+      </c>
+      <c r="P24">
+        <v>0.4315592045934948</v>
+      </c>
+      <c r="Q24">
+        <v>1.086634946914</v>
+      </c>
+      <c r="R24">
+        <v>6.519809681484001</v>
+      </c>
+      <c r="S24">
+        <v>0.1509143494808297</v>
+      </c>
+      <c r="T24">
+        <v>0.1256913282383303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.9773345</v>
+      </c>
+      <c r="H25">
+        <v>3.954669</v>
+      </c>
+      <c r="I25">
+        <v>0.3595762518816823</v>
+      </c>
+      <c r="J25">
+        <v>0.2912493277874231</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.629504</v>
+      </c>
+      <c r="N25">
+        <v>1.888512</v>
+      </c>
+      <c r="O25">
+        <v>0.4807668392384202</v>
+      </c>
+      <c r="P25">
+        <v>0.4943509280309722</v>
+      </c>
+      <c r="Q25">
+        <v>1.244739977088</v>
+      </c>
+      <c r="R25">
+        <v>7.468439862528</v>
+      </c>
+      <c r="S25">
+        <v>0.1728723380823544</v>
+      </c>
+      <c r="T25">
+        <v>0.1439793754801094</v>
       </c>
     </row>
   </sheetData>
